--- a/Document_Processing_Pipeline_Steps.xlsx
+++ b/Document_Processing_Pipeline_Steps.xlsx
@@ -8,110 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DocProcessing\zealits\onpremdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A839D6-AADF-4B07-B7E2-1F4B5380FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C5CB8-DCE1-4DED-A442-0F7F9FEB1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Pipeline Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="Pipeline Steps" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="243">
-  <si>
-    <t>Document Processing Pipeline - Summary</t>
-  </si>
-  <si>
-    <t>Total Steps:</t>
-  </si>
-  <si>
-    <t>Phase 1: PDF Upload &amp; Processing</t>
-  </si>
-  <si>
-    <t>Steps 1-6</t>
-  </si>
-  <si>
-    <t>Phase 2: Vectorization</t>
-  </si>
-  <si>
-    <t>Steps 7-19</t>
-  </si>
-  <si>
-    <t>Phase 3: Query &amp; Retrieval</t>
-  </si>
-  <si>
-    <t>Steps 20-29</t>
-  </si>
-  <si>
-    <t>Phase 4: Page Summarization</t>
-  </si>
-  <si>
-    <t>Step 30</t>
-  </si>
-  <si>
-    <t>Key Technologies:</t>
-  </si>
-  <si>
-    <t>- FastAPI</t>
-  </si>
-  <si>
-    <t>Web framework</t>
-  </si>
-  <si>
-    <t>- Docling</t>
-  </si>
-  <si>
-    <t>PDF to markdown conversion</t>
-  </si>
-  <si>
-    <t>- Ollama</t>
-  </si>
-  <si>
-    <t>LLM and embeddings (nomic-embed-text:v1.5, llama3.1:8b)</t>
-  </si>
-  <si>
-    <t>- Chroma</t>
-  </si>
-  <si>
-    <t>Vector database</t>
-  </si>
-  <si>
-    <t>- NetworkX</t>
-  </si>
-  <si>
-    <t>Graph structure</t>
-  </si>
-  <si>
-    <t>- LangGraph</t>
-  </si>
-  <si>
-    <t>State machine workflow</t>
-  </si>
-  <si>
-    <t>Key Algorithms:</t>
-  </si>
-  <si>
-    <t>- Vector similarity search (L2 distance)</t>
-  </si>
-  <si>
-    <t>- Graph traversal (BFS-like expansion)</t>
-  </si>
-  <si>
-    <t>- LLM-based re-ranking</t>
-  </si>
-  <si>
-    <t>- LLM-based summarization</t>
-  </si>
-  <si>
-    <t>- Table detection and fixing</t>
-  </si>
-  <si>
-    <t>- Hierarchical structure extraction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="244">
   <si>
     <t>Step #</t>
   </si>
@@ -140,10 +49,13 @@
     <t>Output</t>
   </si>
   <si>
+    <t>Examples</t>
+  </si>
+  <si>
     <t>Upload PDF</t>
   </si>
   <si>
-    <t>User uploads PDF file via FastAPI endpoint. File is saved to document-specific folder with unique UUID.</t>
+    <t>User uploads a PDF file via the FastAPI endpoint. The file is saved under a document-specific folder with a unique UUID. The API returns the document_id and status so the client can poll or use the document for later steps (e.g. vectorization, query).</t>
   </si>
   <si>
     <t>main.py</t>
@@ -161,13 +73,16 @@
     <t>PDF file (UploadFile)</t>
   </si>
   <si>
-    <t>Saved PDF file, document_id, ProcessPDFResponse</t>
+    <t>Saved PDF path, document_id, ProcessPDFResponse</t>
+  </si>
+  <si>
+    <t>User selects policy.pdf in the UI → POST /upload → response: { document_id: 'a1b2c3-...', status: 'processing' }.</t>
   </si>
   <si>
     <t>Background PDF processing</t>
   </si>
   <si>
-    <t>Background task processes PDF: converts to markdown, fixes tables, extracts page mapping.</t>
+    <t>A background task is started so the API can respond immediately. The task runs PDF processing: it converts the PDF to markdown, fixes tables, and extracts a line-to-page mapping. Results are written to the document folder (e.g. .md file and _page_mapping.json).</t>
   </si>
   <si>
     <t>main.py, detection.py</t>
@@ -188,10 +103,13 @@
     <t>Markdown file (.md), Page mapping JSON (_page_mapping.json)</t>
   </si>
   <si>
+    <t>document_id triggers background job → task reads PDF from output/a1b2c3.../file.pdf → writes output/a1b2c3.../file.md and _page_mapping.json.</t>
+  </si>
+  <si>
     <t>PDF to Markdown conversion</t>
   </si>
   <si>
-    <t>Docling converts PDF to structured markdown with page break markers. Preserves document structure.</t>
+    <t>Docling converts the PDF into structured markdown. It extracts text and layout and inserts page-break placeholders. This preserves document structure (headings, lists, tables) and gives a consistent format for downstream chunking and graph building.</t>
   </si>
   <si>
     <t>detection.py</t>
@@ -212,10 +130,13 @@
     <t>Raw markdown with page break markers (&lt;!-- page break --&gt;)</t>
   </si>
   <si>
+    <t>policy.pdf → Docling → markdown with '## Part A', '&lt;!-- page break --&gt;', tables, lists.</t>
+  </si>
+  <si>
     <t>Hierarchical heading correction</t>
   </si>
   <si>
-    <t>Fixes heading hierarchy using TOC/bookmarks. Corrects heading levels for proper document structure.</t>
+    <t>Heading levels from the PDF TOC or bookmarks are used to correct markdown heading hierarchy. This step ensures sections like 'Part A', 'Section 1.2' have the right nesting so the vectorizer can build an accurate section graph.</t>
   </si>
   <si>
     <t>docling-hierarchical (ResultPostprocessor)</t>
@@ -233,10 +154,13 @@
     <t>Document with corrected heading hierarchy</t>
   </si>
   <si>
+    <t>PDF bookmarks: 'Part A' (L1), 'Section 1' (L2) → markdown headings adjusted to # Part A, ## Section 1.</t>
+  </si>
+  <si>
     <t>Markdown table fixing</t>
   </si>
   <si>
-    <t>Detects markdown tables, fixes formatting issues (separators, headers, grouping), handles complex table structures.</t>
+    <t>Markdown tables are detected and normalized: separator rows, header rows, and grouping are fixed. Trailing empty columns are trimmed. Output is clean markdown suitable for chunking without broken table boundaries.</t>
   </si>
   <si>
     <t>Table detection, separator/header/group row handling</t>
@@ -251,10 +175,13 @@
     <t>Fixed markdown with properly formatted tables</t>
   </si>
   <si>
+    <t>Markdown table with broken separators → fix_table() → valid markdown table with aligned columns.</t>
+  </si>
+  <si>
     <t>Page mapping extraction</t>
   </si>
   <si>
-    <t>Extracts page boundaries from markdown with page break markers. Maps each line to page number.</t>
+    <t>Page-break markers in the markdown are used to build a line-to-page map. Each line (or block) is assigned a page number. This supports page-level features (e.g. page summaries, page classification) and citation by page.</t>
   </si>
   <si>
     <t>Line-to-page mapping from page break markers</t>
@@ -269,10 +196,13 @@
     <t>Page mapping JSON: {line_to_page, page_boundaries, total_pages}</t>
   </si>
   <si>
+    <t>Markdown with 10 page breaks → extract_page_mapping_from_markdown() → { line_to_page: {0:1, 45:2, ...}, total_pages: 10 }.</t>
+  </si>
+  <si>
     <t>Trigger vectorization</t>
   </si>
   <si>
-    <t>API endpoint triggers vectorization workflow. Creates initial state for LangGraph workflow.</t>
+    <t>The API triggers the vectorization workflow for a document (e.g. after upload or on demand). A LangGraph workflow is created and run in the background. Initial state includes the document_id and paths to the markdown and page mapping.</t>
   </si>
   <si>
     <t>FastAPI, LangGraph</t>
@@ -290,10 +220,13 @@
     <t>VectorizerState with markdown_file path</t>
   </si>
   <si>
+    <t>POST /vectorize { document_id } → 202 Accepted → background workflow starts; client polls status.</t>
+  </si>
+  <si>
     <t>Load markdown and chunk</t>
   </si>
   <si>
-    <t>Loads markdown file and page mapping. Parses markdown into chunks with structure awareness.</t>
+    <t>The markdown file and page mapping are loaded. Markdown is parsed with structure awareness (headings, lists, tables). Each segment is associated with a section and page via the structure and page mapping.</t>
   </si>
   <si>
     <t>vectorizerE.py</t>
@@ -308,13 +241,16 @@
     <t>Markdown file path, page mapping JSON</t>
   </si>
   <si>
-    <t>List of Document chunks, document structure dictionary</t>
+    <t>Parsed chunks, document structure dict</t>
+  </si>
+  <si>
+    <t>load_markdown('output/.../file.md') + page_mapping → list of (text, section_path, page_number) segments.</t>
   </si>
   <si>
     <t>Extract document structure</t>
   </si>
   <si>
-    <t>Extracts hierarchical structure: sections, headers, tables. Builds section hierarchy tree.</t>
+    <t>The full document structure is extracted from the markdown: sections and headers are detected with regex, and a full hierarchy path is built for each (e.g. 'Part A &gt; Section 2 &gt; 2.1'). This drives section nodes and chunk–section links in the graph.</t>
   </si>
   <si>
     <t>Regex header detection, full hierarchy path building</t>
@@ -326,13 +262,16 @@
     <t>Markdown content</t>
   </si>
   <si>
-    <t>Structure dict: {sections, headers, tables}</t>
+    <t>Structure dict: {sections, headers, tables} with full paths</t>
+  </si>
+  <si>
+    <t>Markdown with ## Part A, ### 1.1 Definitions → structure: sections with full paths like 'Part A &gt; 1.1 Definitions'.</t>
   </si>
   <si>
     <t>Create enhanced chunks</t>
   </si>
   <si>
-    <t>Splits markdown into chunks (2000 chars, 150 overlap). Filters empty chunks, removes duplicates. Adds metadata.</t>
+    <t>Content is split into fixed-size chunks (e.g. 2000 chars, 150 overlap). Empty or duplicate chunks are dropped. Each chunk gets metadata: heading, section_path, page_number, prev/next chunk IDs. Chunks are assigned to the most specific section containing their start line.</t>
   </si>
   <si>
     <t>Size-based splitting, overlap, section assignment</t>
@@ -347,10 +286,13 @@
     <t>List of Document chunks with metadata (heading, section_path, page_number, etc.)</t>
   </si>
   <si>
+    <t>8000-char section split into 4 chunks (2000 chars, 150 overlap), each with section_path 'Part A &gt; 2. Payment', page_number, prev/next chunk IDs.</t>
+  </si>
+  <si>
     <t>Initialize LLM and vector store</t>
   </si>
   <si>
-    <t>Initializes Ollama LLM and embeddings models. Sets up vector store (Chroma) and document graph.</t>
+    <t>Ollama LLM and embedding model are initialized (e.g. llama3.1:8b, nomic-embed-text:v1.5). Chroma is set up with a persist directory. These are used for chunk summarization, embedding, and later for the retrieval agent.</t>
   </si>
   <si>
     <t>Ollama (llama3.1:8b), nomic-embed-text:v1.5, Chroma</t>
@@ -368,10 +310,13 @@
     <t>Initialized LLM, embeddings, vector store, DocumentGraph</t>
   </si>
   <si>
+    <t>Ollama(base_url), OllamaEmbeddings(model='nomic-embed-text'), Chroma(persist_directory='.../vector_db') created.</t>
+  </si>
+  <si>
     <t>Build section graph</t>
   </si>
   <si>
-    <t>Builds knowledge graph: adds section nodes, creates parent-child relationships between sections.</t>
+    <t>A directed graph is built from the document structure: one node per section, with edges from parent to child (e.g. 'Part A' → 'Section 2'). This supports graph expansion at query time (e.g. follow section links from a seed chunk).</t>
   </si>
   <si>
     <t>NetworkX</t>
@@ -389,10 +334,13 @@
     <t>Graph with section nodes and hierarchical edges</t>
   </si>
   <si>
+    <t>Nodes: section:Part A, section:Section 2; edges: Part A → Section 2 (contains_section).</t>
+  </si>
+  <si>
     <t>Page classification</t>
   </si>
   <si>
-    <t>Classifies each page using LLM based on content. Generates descriptive labels (1-4 words) for each page.</t>
+    <t>Each page is classified by the LLM into a short label (1–4 words) based on its content. Labels are stored in chunk metadata and used for display or filtering (e.g. 'Terms and conditions', 'Claim form').</t>
   </si>
   <si>
     <t>Ollama LLM</t>
@@ -410,10 +358,13 @@
     <t>Dictionary: {page_number: classification_label}</t>
   </si>
   <si>
+    <t>Page 3 chunks → LLM → page_classification[3] = 'Terms and conditions'.</t>
+  </si>
+  <si>
     <t>Process chunks (embed + graph)</t>
   </si>
   <si>
-    <t>For each chunk: generates summary using LLM, creates embedding, adds to vector store, adds to graph.</t>
+    <t>For each chunk, the pipeline generates a one-line summary (LLM), computes an embedding (nomic-embed-text), adds the chunk to Chroma, and adds a chunk node and edges to the graph (section, page, prev/next, and later similarity).</t>
   </si>
   <si>
     <t>Ollama, Chroma, NetworkX</t>
@@ -428,13 +379,16 @@
     <t>Chunk content</t>
   </si>
   <si>
-    <t>Embedded chunk in vector store, chunk node in graph, JSON mapping entry</t>
+    <t>Embedded chunk in Chroma, chunk node and edges in graph, JSON mapping entry</t>
+  </si>
+  <si>
+    <t>Chunk 'The policy shall be governed...' → summary generated, embedded, added to Chroma and graph with edges to section and page.</t>
   </si>
   <si>
     <t>Chunk summary generation</t>
   </si>
   <si>
-    <t>Generates one-line summary for each chunk using LLM. Token-limited to 500 tokens.</t>
+    <t>The LLM produces a single concise summary line per chunk, within a token limit (e.g. 500). Summaries are stored in chunk metadata and used in retrieval (e.g. in analysis or answer prompts) and in the vector mapping JSON.</t>
   </si>
   <si>
     <t>One-line summary, token limit 500</t>
@@ -449,10 +403,13 @@
     <t>One-line summary string</t>
   </si>
   <si>
+    <t>Chunk text → LLM → 'Clause stating governing law is India.'.</t>
+  </si>
+  <si>
     <t>Chunk embedding</t>
   </si>
   <si>
-    <t>Generates vector embeddings for each chunk using nomic-embed-text model. Truncates if exceeds limits.</t>
+    <t>Chunk text is checked against token/character limits for the embedding model; if over, it is truncated. The embedding is computed and the chunk (with metadata) is added to the Chroma collection.</t>
   </si>
   <si>
     <t>Ollama (nomic-embed-text:v1.5), Chroma</t>
@@ -467,13 +424,16 @@
     <t>Chunk content (max 2000 chars, 1500 tokens)</t>
   </si>
   <si>
-    <t>Vector embedding (stored in Chroma)</t>
+    <t>Vector embedding stored in Chroma</t>
+  </si>
+  <si>
+    <t>Chunk (1800 chars) → truncated if needed → embedding vector → Chroma.add_documents([doc]).</t>
   </si>
   <si>
     <t>Chunk graph edges</t>
   </si>
   <si>
-    <t>Adds chunk nodes to graph. Creates edges: chunk→section (belongs_to), chunk→page (on_page), chunk→chunk (follows).</t>
+    <t>Each chunk is added as a node in the graph. Edges link chunk to its section (belongs_to), to its page (on_page), and to previous/next chunks (follows). These support graph expansion (e.g. 'give me adjacent chunks').</t>
   </si>
   <si>
     <t>belongs_to section, on_page, follows prev/next</t>
@@ -488,10 +448,13 @@
     <t>Graph nodes and edges for chunks</t>
   </si>
   <si>
+    <t>Chunk 12 → edges: chunk:12 --belongs_to--&gt; section:10. Jurisdiction, chunk:12 --on_page--&gt; page:5, chunk:12 --follows--&gt; chunk:11.</t>
+  </si>
+  <si>
     <t>Similarity edges</t>
   </si>
   <si>
-    <t>Computes similarity between chunks using vector search. Adds 'similar_to' edges for chunks above threshold (0.50).</t>
+    <t>For each chunk, a vector search finds other chunks with L2 distance below a threshold (e.g. 0.50). Pairs are connected with a 'similar_to' edge. This adds semantic neighbourhoods to the graph for expansion.</t>
   </si>
   <si>
     <t>Chroma, NetworkX</t>
@@ -509,10 +472,13 @@
     <t>Graph edges with similarity scores (similar_to relation)</t>
   </si>
   <si>
+    <t>Chunk 5 embedding → similarity_search_with_score(k=10) → chunks 3, 7, 9 within threshold → add similar_to edges.</t>
+  </si>
+  <si>
     <t>Persist outputs</t>
   </si>
   <si>
-    <t>Saves document graph to JSON, saves vector mapping to JSON, persists Chroma vector database.</t>
+    <t>The document graph is saved as JSON (nodes and edges). The vector mapping (chunks with metadata and optional summaries) is saved as JSON. The Chroma collection is persisted to disk so the retrieval agent can load it.</t>
   </si>
   <si>
     <t>Chroma, JSON</t>
@@ -530,10 +496,13 @@
     <t>Graph JSON file, vector mapping JSON file, persisted Chroma DB</t>
   </si>
   <si>
+    <t>document_graph.save('.../graph.json'), json.dump(mapping, '.../vector_mapping.json'), Chroma persists to disk.</t>
+  </si>
+  <si>
     <t>Submit query</t>
   </si>
   <si>
-    <t>User submits query via API. System loads agent resources for document.</t>
+    <t>The user sends a query (and optional document_id, flags) via the API. The request is validated and the agent for that document is loaded (vector store, graph, chunks, LLM). The query is passed into the agent state.</t>
   </si>
   <si>
     <t>Request validation, agent loading</t>
@@ -545,13 +514,16 @@
     <t>Query string, document_id</t>
   </si>
   <si>
-    <t>Initialized AgentState</t>
+    <t>Initialized AgentState with query</t>
+  </si>
+  <si>
+    <t>POST /query { document_id, query: 'What is the grace period?' } → load agent → state = { query: '...', ... }.</t>
   </si>
   <si>
     <t>Load agent resources</t>
   </si>
   <si>
-    <t>Loads vector store, document graph, chunks, LLM. Initializes page summarization agent if available.</t>
+    <t>For the given document, the vector store (Chroma), document graph (NetworkX), chunk list (from vector mapping JSON), and LLM are loaded. If configured, the page summarization agent is also loaded. These are stored for use by the retrieval nodes.</t>
   </si>
   <si>
     <t>main.py, retrivalAgentE.py</t>
@@ -572,10 +544,13 @@
     <t>Loaded vector store, graph, chunks, LLM, page agent</t>
   </si>
   <si>
+    <t>document_id → find vector_db path, mapping JSON, graph JSON → load Chroma, DocumentGraph, chunks list, Ollama LLM.</t>
+  </si>
+  <si>
     <t>Query classification</t>
   </si>
   <si>
-    <t>Classifies query as page summary request or normal retrieval. Uses pattern matching + LLM classification.</t>
+    <t>The user query is classified as either a page-summary request (e.g. 'summarize page 5') or a normal retrieval request. Pattern matching and optionally the LLM are used. The result routes to either page summarization or the retrieval pipeline.</t>
   </si>
   <si>
     <t>retrivalAgentE.py</t>
@@ -596,10 +571,13 @@
     <t>is_page_summary (bool), page_number (optional)</t>
   </si>
   <si>
+    <t>Query 'Summarize page 5' → is_page_summary=True, page_number=5 → route to summarize_page. Query 'What is the grace period?' → normal_retrieval.</t>
+  </si>
+  <si>
     <t>Vector similarity search</t>
   </si>
   <si>
-    <t>Performs vector similarity search to find top-k (20) most relevant chunks. Converts L2 distance to similarity score.</t>
+    <t>The query is embedded and compared to chunk embeddings in Chroma. The top-k (e.g. 20) chunks by L2 distance are taken as seeds. Distances are converted to similarity scores and stored for logging or display.</t>
   </si>
   <si>
     <t>Chroma, nomic-embed-text</t>
@@ -617,10 +595,13 @@
     <t>Seed chunk IDs, similarity scores</t>
   </si>
   <si>
+    <t>Query 'grace period' → vector_search(k=20) → seed_chunk_ids=[7, 12, 3, ...], seed_chunk_scores={7:0.82, 12:0.78, ...}.</t>
+  </si>
+  <si>
     <t>Graph expansion</t>
   </si>
   <si>
-    <t>Expands from top seed chunks (top 5) via graph edges: sections, adjacent chunks, similar chunks. Max 15 expansion.</t>
+    <t>From the top seed chunks (e.g. top 5), the graph is traversed: parent sections, adjacent chunks (prev/next), and similar chunks (similar_to). Expansion is capped (e.g. 15 extra chunks) to keep context size manageable.</t>
   </si>
   <si>
     <t>BFS from top-5 seeds: sections, adjacent, similar; max 15</t>
@@ -635,31 +616,37 @@
     <t>Expanded chunk IDs (via graph edges)</t>
   </si>
   <si>
-    <t>Re-rank by relevance</t>
-  </si>
-  <si>
-    <t>Re-ranks retrieved chunks by relevance to query using LLM. Scores 0.0-1.0. Selects top 25 chunks.</t>
-  </si>
-  <si>
-    <t>LLM relevance scoring 0.0–1.0, top 25</t>
-  </si>
-  <si>
-    <t>rerank_chunks_by_relevance(), rerank_scores</t>
-  </si>
-  <si>
-    <t>Query, retrieved chunks (max 30)</t>
-  </si>
-  <si>
-    <t>Re-ranked chunks (top 25), rerank scores</t>
+    <t>Seeds [7, 12, 3, 40, 11] → expand_from_chunks() → add parent sections, prev/next chunks, similar_to neighbours → graph_expanded_ids (e.g. 15 more).</t>
+  </si>
+  <si>
+    <t>Cap initial chunks</t>
+  </si>
+  <si>
+    <t>The combined set of seed and expanded chunks is trimmed to a fixed limit (e.g. 25) for the first pass. Order is preserved (e.g. seeds first). These chunks are stored in state and passed to chunk analysis. No LLM scoring step is used.</t>
+  </si>
+  <si>
+    <t>Select top 25 chunks from combined vector + graph results</t>
+  </si>
+  <si>
+    <t>retrieved_chunks[:25], state['retrieved_chunks']</t>
+  </si>
+  <si>
+    <t>Combined seed + expanded chunk list</t>
+  </si>
+  <si>
+    <t>Top 25 chunks in state['retrieved_chunks']</t>
+  </si>
+  <si>
+    <t>28 chunks (20 seeds + 15 expanded, some overlap) → take first 25 → state['retrieved_chunks'] = list of 25 Document objects.</t>
   </si>
   <si>
     <t>Chunk analysis</t>
   </si>
   <si>
-    <t>Analyzes retrieved chunks to determine if more information is needed. Generates new query if needed.</t>
-  </si>
-  <si>
-    <t>Need more info?, new_query generation</t>
+    <t>The LLM analyzes the current chunks with a short prompt: do they sufficiently answer the query? If not, it produces a single follow-up query. The result (needs_more_info, new_query) drives whether a second retrieval is run.</t>
+  </si>
+  <si>
+    <t>Shortened prompt; need more info?, single follow-up query</t>
   </si>
   <si>
     <t>analyze_chunks(), should_continue_search()</t>
@@ -671,13 +658,16 @@
     <t>Analysis text, needs_more_info (bool), new_query (optional)</t>
   </si>
   <si>
+    <t>Query 'governing law'; 25 chunks → LLM: 'Partially; missing which country.' → needs_more_info=True, new_query='Which country laws govern this policy?'.</t>
+  </si>
+  <si>
     <t>Second retrieval</t>
   </si>
   <si>
-    <t>If more info needed, performs second vector search with new query. Expands via graph. Re-ranks results.</t>
-  </si>
-  <si>
-    <t>New query vector search, graph expand, rerank</t>
+    <t>When the analysis requests more information, a second retrieval is run with the new query: vector search (e.g. k=15) and graph expansion from those seeds, excluding chunks already in the first pass. Results are capped (e.g. 15) and appended to state.</t>
+  </si>
+  <si>
+    <t>New query vector search, graph expand; cap 15 chunks</t>
   </si>
   <si>
     <t>second_retrieval(), similarity_search_with_score(new_query, k=15)</t>
@@ -686,31 +676,37 @@
     <t>New query, existing chunk IDs (to avoid duplicates)</t>
   </si>
   <si>
-    <t>Additional retrieved chunks</t>
+    <t>Additional chunks (up to 15) in state['second_retrieval_chunks']</t>
+  </si>
+  <si>
+    <t>new_query='Which country laws govern...' → vector_search(k=15), graph expand → 4 new chunks (excluding already retrieved) → second_retrieval_chunks.</t>
   </si>
   <si>
     <t>Generate answer</t>
   </si>
   <si>
-    <t>Generates comprehensive answer from all retrieved chunks using LLM. Uses top 25 chunks as context.</t>
-  </si>
-  <si>
-    <t>Context from top 25 chunks, prompt with query</t>
-  </si>
-  <si>
-    <t>generate_final_answer()</t>
-  </si>
-  <si>
-    <t>Query, retrieved chunks (top 25), rerank scores</t>
+    <t>The final answer is generated by the LLM from the selected chunks (primary plus any second retrieval). The user question is placed at the top of the prompt and repeated before the answer instruction. Only information from the chunks is used; chunk numbers are not cited in the answer.</t>
+  </si>
+  <si>
+    <t>Question in prompt (first line + repeated); primary + second chunks</t>
+  </si>
+  <si>
+    <t>generate_final_answer(), answer_prompt with QUESTION block</t>
+  </si>
+  <si>
+    <t>Query, primary chunks, second chunks (if any)</t>
   </si>
   <si>
     <t>Final answer text</t>
   </si>
   <si>
+    <t>Query 'policy governed by which country?' + 29 chunks → prompt starts with 'QUESTION: policy governed by which country?' and repeats it → LLM returns answer citing document only.</t>
+  </si>
+  <si>
     <t>Format response</t>
   </si>
   <si>
-    <t>Formats response with answer, chunk details, retrieval stats, debug info. Returns to API client.</t>
+    <t>The agent output (final answer, chunk list, retrieval stats, debug info) is mapped into a structured API response: answer text, optional chunk details (with metadata), retrieval statistics, and optional second query used.</t>
   </si>
   <si>
     <t>FastAPI, Pydantic</t>
@@ -728,10 +724,13 @@
     <t>QueryResponse JSON</t>
   </si>
   <si>
+    <t>final_answer, retrieved_chunks, second_retrieval_chunks, debug_info → QueryResponse(answer=..., retrieval_stats={...}, chunks_detail=[...]).</t>
+  </si>
+  <si>
     <t>Page summarization</t>
   </si>
   <si>
-    <t>If query is page summary request, uses PageSummarizationAgent to generate page-level summary.</t>
+    <t>For page-summary queries, the page summarization agent loads chunks for the requested page (and optionally adjacent pages). The LLM produces a short summary, key points, and section labels. The result is returned as the final answer.</t>
   </si>
   <si>
     <t>main.py, page_summarization.py</t>
@@ -750,13 +749,16 @@
   </si>
   <si>
     <t>Page summary with key points, sections, classification</t>
+  </si>
+  <si>
+    <t>Query 'Summarize page 5' → load chunks for page 5 (and maybe 4, 6) → LLM → 'Page 5 covers Premium payment. Key points: ...'.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,16 +774,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -837,10 +829,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,162 +1141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,905 +1160,999 @@
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="5" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="J8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="5" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="11" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="5" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="5" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="5" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="F28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="E29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="G29" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="I29" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="J29" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>242</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Document_Processing_Pipeline_Steps.xlsx
+++ b/Document_Processing_Pipeline_Steps.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DocProcessing\zealits\onpremdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C5CB8-DCE1-4DED-A442-0F7F9FEB1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7EF12-B346-4FF0-8841-E2E609F3400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pipeline Steps" sheetId="2" r:id="rId1"/>
+    <sheet name="Pipeline Steps" sheetId="1" r:id="rId1"/>
+    <sheet name="Combined Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="329">
   <si>
     <t>Step #</t>
   </si>
@@ -55,7 +56,7 @@
     <t>Upload PDF</t>
   </si>
   <si>
-    <t>User uploads a PDF file via the FastAPI endpoint. The file is saved under a document-specific folder with a unique UUID. The API returns the document_id and status so the client can poll or use the document for later steps (e.g. vectorization, query).</t>
+    <t>Receive the PDF file from the client and save it to a document folder named by a new UUID. Return the document_id and status so the client can poll or call vectorize/query.</t>
   </si>
   <si>
     <t>main.py</t>
@@ -64,7 +65,7 @@
     <t>FastAPI</t>
   </si>
   <si>
-    <t>File upload, UUID generation</t>
+    <t>File save, UUID generation</t>
   </si>
   <si>
     <t>upload_pdf(), File(), UploadFile</t>
@@ -76,13 +77,13 @@
     <t>Saved PDF path, document_id, ProcessPDFResponse</t>
   </si>
   <si>
-    <t>User selects policy.pdf in the UI → POST /upload → response: { document_id: 'a1b2c3-...', status: 'processing' }.</t>
-  </si>
-  <si>
-    <t>Background PDF processing</t>
-  </si>
-  <si>
-    <t>A background task is started so the API can respond immediately. The task runs PDF processing: it converts the PDF to markdown, fixes tables, and extracts a line-to-page mapping. Results are written to the document folder (e.g. .md file and _page_mapping.json).</t>
+    <t>POST /upload with policy.pdf → file saved to output/{uuid}/policy.pdf → response: { document_id, status: 'processing' }.</t>
+  </si>
+  <si>
+    <t>Schedule PDF processing task</t>
+  </si>
+  <si>
+    <t>Enqueue a background task for this document. When the task runs, it executes steps 3, 4, 5, and 6 in order and writes the markdown and page-mapping files to the document folder. The API returns immediately.</t>
   </si>
   <si>
     <t>main.py, detection.py</t>
@@ -91,25 +92,25 @@
     <t>—</t>
   </si>
   <si>
-    <t>Background task scheduling</t>
+    <t>Enqueue background task that runs steps 3–6</t>
   </si>
   <si>
     <t>process_pdf_background(), process_single_pdf()</t>
   </si>
   <si>
-    <t>PDF file path</t>
-  </si>
-  <si>
-    <t>Markdown file (.md), Page mapping JSON (_page_mapping.json)</t>
-  </si>
-  <si>
-    <t>document_id triggers background job → task reads PDF from output/a1b2c3.../file.pdf → writes output/a1b2c3.../file.md and _page_mapping.json.</t>
-  </si>
-  <si>
-    <t>PDF to Markdown conversion</t>
-  </si>
-  <si>
-    <t>Docling converts the PDF into structured markdown. It extracts text and layout and inserts page-break placeholders. This preserves document structure (headings, lists, tables) and gives a consistent format for downstream chunking and graph building.</t>
+    <t>document_id, PDF path</t>
+  </si>
+  <si>
+    <t>Enqueued task (steps 3–6 run when task executes)</t>
+  </si>
+  <si>
+    <t>process_pdf_background(pdf_path, document_id) called → task enqueued; when it runs, it will execute steps 3, 4, 5, 6.</t>
+  </si>
+  <si>
+    <t>Convert PDF to markdown</t>
+  </si>
+  <si>
+    <t>Convert the PDF to structured markdown using Docling. Insert page-break placeholders in the output. Output is raw markdown (headings, lists, tables, page-break markers).</t>
   </si>
   <si>
     <t>detection.py</t>
@@ -118,7 +119,7 @@
     <t>Docling (DocumentConverter)</t>
   </si>
   <si>
-    <t>Native text extraction, layout parsing</t>
+    <t>PDF parse, export with page-break placeholder</t>
   </si>
   <si>
     <t>DocumentConverter.convert(), export_to_markdown(page_break_placeholder)</t>
@@ -127,22 +128,22 @@
     <t>PDF file</t>
   </si>
   <si>
-    <t>Raw markdown with page break markers (&lt;!-- page break --&gt;)</t>
-  </si>
-  <si>
-    <t>policy.pdf → Docling → markdown with '## Part A', '&lt;!-- page break --&gt;', tables, lists.</t>
-  </si>
-  <si>
-    <t>Hierarchical heading correction</t>
-  </si>
-  <si>
-    <t>Heading levels from the PDF TOC or bookmarks are used to correct markdown heading hierarchy. This step ensures sections like 'Part A', 'Section 1.2' have the right nesting so the vectorizer can build an accurate section graph.</t>
+    <t>Raw markdown with page break markers</t>
+  </si>
+  <si>
+    <t>Docling converts policy.pdf → raw markdown with '## Part A', '&lt;!-- page break --&gt;', tables.</t>
+  </si>
+  <si>
+    <t>Correct heading hierarchy</t>
+  </si>
+  <si>
+    <t>Adjust heading levels in the document using the PDF TOC or bookmarks so that section nesting is correct (e.g. Part A as top level, Section 1.2 as child). Output is the same document with corrected heading levels.</t>
   </si>
   <si>
     <t>docling-hierarchical (ResultPostprocessor)</t>
   </si>
   <si>
-    <t>TOC/bookmark-based heading level inference</t>
+    <t>TOC/bookmark level inference</t>
   </si>
   <si>
     <t>ResultPostprocessor(doc, source=pdf_path).process()</t>
@@ -154,61 +155,61 @@
     <t>Document with corrected heading hierarchy</t>
   </si>
   <si>
-    <t>PDF bookmarks: 'Part A' (L1), 'Section 1' (L2) → markdown headings adjusted to # Part A, ## Section 1.</t>
-  </si>
-  <si>
-    <t>Markdown table fixing</t>
-  </si>
-  <si>
-    <t>Markdown tables are detected and normalized: separator rows, header rows, and grouping are fixed. Trailing empty columns are trimmed. Output is clean markdown suitable for chunking without broken table boundaries.</t>
-  </si>
-  <si>
-    <t>Table detection, separator/header/group row handling</t>
+    <t>ResultPostprocessor(doc).process() → headings adjusted using PDF bookmarks (e.g. # Part A, ## Section 1).</t>
+  </si>
+  <si>
+    <t>Fix markdown tables</t>
+  </si>
+  <si>
+    <t>Detect tables in the markdown and fix separator rows, header rows, and trailing empty columns. Output is markdown with valid table syntax.</t>
+  </si>
+  <si>
+    <t>Table detect, separator/header/column fix</t>
   </si>
   <si>
     <t>process_markdown(), fix_table(), trim_trailing_empty_columns()</t>
   </si>
   <si>
-    <t>Markdown text with tables</t>
-  </si>
-  <si>
-    <t>Fixed markdown with properly formatted tables</t>
-  </si>
-  <si>
-    <t>Markdown table with broken separators → fix_table() → valid markdown table with aligned columns.</t>
-  </si>
-  <si>
-    <t>Page mapping extraction</t>
-  </si>
-  <si>
-    <t>Page-break markers in the markdown are used to build a line-to-page map. Each line (or block) is assigned a page number. This supports page-level features (e.g. page summaries, page classification) and citation by page.</t>
-  </si>
-  <si>
-    <t>Line-to-page mapping from page break markers</t>
+    <t>Markdown text</t>
+  </si>
+  <si>
+    <t>Fixed markdown (valid tables)</t>
+  </si>
+  <si>
+    <t>process_markdown(markdown) → tables fixed (separators, headers, empty columns).</t>
+  </si>
+  <si>
+    <t>Extract page mapping</t>
+  </si>
+  <si>
+    <t>Scan the markdown for page-break markers and assign a page number to each line or block. Output is a JSON map (line_to_page, page_boundaries, total_pages).</t>
+  </si>
+  <si>
+    <t>Scan page-break markers, assign line→page</t>
   </si>
   <si>
     <t>extract_page_mapping_from_markdown(), create_approximate_page_mapping()</t>
   </si>
   <si>
-    <t>Markdown with page break markers</t>
+    <t>Markdown with page breaks</t>
   </si>
   <si>
     <t>Page mapping JSON: {line_to_page, page_boundaries, total_pages}</t>
   </si>
   <si>
-    <t>Markdown with 10 page breaks → extract_page_mapping_from_markdown() → { line_to_page: {0:1, 45:2, ...}, total_pages: 10 }.</t>
-  </si>
-  <si>
-    <t>Trigger vectorization</t>
-  </si>
-  <si>
-    <t>The API triggers the vectorization workflow for a document (e.g. after upload or on demand). A LangGraph workflow is created and run in the background. Initial state includes the document_id and paths to the markdown and page mapping.</t>
+    <t>extract_page_mapping_from_markdown(md) → { line_to_page: {0:1, 45:2, ...}, total_pages: 10 }.</t>
+  </si>
+  <si>
+    <t>Schedule vectorization task</t>
+  </si>
+  <si>
+    <t>Enqueue a background vectorization workflow for the document. Create the workflow state (markdown path, document folder) and run the workflow. The API returns immediately.</t>
   </si>
   <si>
     <t>FastAPI, LangGraph</t>
   </si>
   <si>
-    <t>Background task, state initialization</t>
+    <t>Enqueue workflow that runs steps 8–19</t>
   </si>
   <si>
     <t>vectorize_document(), vectorize_background(), create_vectorization_workflow()</t>
@@ -217,43 +218,43 @@
     <t>document_id</t>
   </si>
   <si>
-    <t>VectorizerState with markdown_file path</t>
-  </si>
-  <si>
-    <t>POST /vectorize { document_id } → 202 Accepted → background workflow starts; client polls status.</t>
-  </si>
-  <si>
-    <t>Load markdown and chunk</t>
-  </si>
-  <si>
-    <t>The markdown file and page mapping are loaded. Markdown is parsed with structure awareness (headings, lists, tables). Each segment is associated with a section and page via the structure and page mapping.</t>
+    <t>Enqueued workflow (steps 8–19 run when workflow runs)</t>
+  </si>
+  <si>
+    <t>POST /vectorize { document_id } → vectorize_background(document_id) enqueued; workflow will run steps 8–19.</t>
+  </si>
+  <si>
+    <t>Load markdown and parse</t>
+  </si>
+  <si>
+    <t>Read the markdown file and page-mapping JSON from disk. Parse the markdown into lines or blocks and attach a page number to each using the page mapping. Output is parsed content with page numbers.</t>
   </si>
   <si>
     <t>vectorizerE.py</t>
   </si>
   <si>
-    <t>Markdown parsing, structure-aware chunking</t>
-  </si>
-  <si>
-    <t>load_markdown(), parse_markdown_enhanced(), get_section_for_line()</t>
-  </si>
-  <si>
-    <t>Markdown file path, page mapping JSON</t>
-  </si>
-  <si>
-    <t>Parsed chunks, document structure dict</t>
-  </si>
-  <si>
-    <t>load_markdown('output/.../file.md') + page_mapping → list of (text, section_path, page_number) segments.</t>
+    <t>Read file, parse lines/blocks, attach page numbers</t>
+  </si>
+  <si>
+    <t>load_markdown(), parse_markdown_enhanced()</t>
+  </si>
+  <si>
+    <t>Markdown file path, page mapping path</t>
+  </si>
+  <si>
+    <t>Parsed content (lines/blocks) with page numbers</t>
+  </si>
+  <si>
+    <t>load_markdown(path), page_mapping → parsed lines/blocks, each with page_number.</t>
   </si>
   <si>
     <t>Extract document structure</t>
   </si>
   <si>
-    <t>The full document structure is extracted from the markdown: sections and headers are detected with regex, and a full hierarchy path is built for each (e.g. 'Part A &gt; Section 2 &gt; 2.1'). This drives section nodes and chunk–section links in the graph.</t>
-  </si>
-  <si>
-    <t>Regex header detection, full hierarchy path building</t>
+    <t>Scan the markdown for headers (#, ##, etc.) and build a tree of sections. Assign each section a full path (e.g. 'Part A &gt; Section 2 &gt; 2.1'). Output is a structure dict (sections with full paths).</t>
+  </si>
+  <si>
+    <t>Regex headers, build section tree with full paths</t>
   </si>
   <si>
     <t>extract_document_structure(), header match (#+), section path tree</t>
@@ -262,37 +263,37 @@
     <t>Markdown content</t>
   </si>
   <si>
-    <t>Structure dict: {sections, headers, tables} with full paths</t>
-  </si>
-  <si>
-    <t>Markdown with ## Part A, ### 1.1 Definitions → structure: sections with full paths like 'Part A &gt; 1.1 Definitions'.</t>
+    <t>Structure dict: sections with full paths</t>
+  </si>
+  <si>
+    <t>extract_document_structure(md) → { sections: [ { path: 'Part A &gt; 2.1', ... } ] }.</t>
   </si>
   <si>
     <t>Create enhanced chunks</t>
   </si>
   <si>
-    <t>Content is split into fixed-size chunks (e.g. 2000 chars, 150 overlap). Empty or duplicate chunks are dropped. Each chunk gets metadata: heading, section_path, page_number, prev/next chunk IDs. Chunks are assigned to the most specific section containing their start line.</t>
-  </si>
-  <si>
-    <t>Size-based splitting, overlap, section assignment</t>
+    <t>Split the markdown into fixed-size chunks (e.g. 2000 chars, 150 overlap). For each chunk, set metadata: section_path from structure, page_number from page mapping, heading, prev/next chunk IDs. Drop empty or duplicate chunks. Output is a list of Document objects with metadata.</t>
+  </si>
+  <si>
+    <t>Split by size/overlap, assign section/page/prev/next</t>
   </si>
   <si>
     <t>create_enhanced_chunk(), is_chunk_empty(), adjacency metadata</t>
   </si>
   <si>
-    <t>Markdown content, structure, page mapping</t>
-  </si>
-  <si>
-    <t>List of Document chunks with metadata (heading, section_path, page_number, etc.)</t>
-  </si>
-  <si>
-    <t>8000-char section split into 4 chunks (2000 chars, 150 overlap), each with section_path 'Part A &gt; 2. Payment', page_number, prev/next chunk IDs.</t>
+    <t>Markdown, structure, page mapping</t>
+  </si>
+  <si>
+    <t>List of Document chunks with metadata</t>
+  </si>
+  <si>
+    <t>create_enhanced_chunk() in loop → list of Document chunks with section_path, page_number, heading, prev/next.</t>
   </si>
   <si>
     <t>Initialize LLM and vector store</t>
   </si>
   <si>
-    <t>Ollama LLM and embedding model are initialized (e.g. llama3.1:8b, nomic-embed-text:v1.5). Chroma is set up with a persist directory. These are used for chunk summarization, embedding, and later for the retrieval agent.</t>
+    <t>Create the Ollama LLM and embedding client and a Chroma vector store with a persist directory. Output is initialized LLM, embeddings, and vector_store used in steps 15–16 and by the retrieval agent.</t>
   </si>
   <si>
     <t>Ollama (llama3.1:8b), nomic-embed-text:v1.5, Chroma</t>
@@ -307,16 +308,16 @@
     <t>Model names, base URL</t>
   </si>
   <si>
-    <t>Initialized LLM, embeddings, vector store, DocumentGraph</t>
-  </si>
-  <si>
-    <t>Ollama(base_url), OllamaEmbeddings(model='nomic-embed-text'), Chroma(persist_directory='.../vector_db') created.</t>
+    <t>LLM, embeddings, vector_store, DocumentGraph (empty)</t>
+  </si>
+  <si>
+    <t>Ollama(), OllamaEmbeddings(), Chroma(persist_directory=...) → LLM, embeddings, vector_store ready.</t>
   </si>
   <si>
     <t>Build section graph</t>
   </si>
   <si>
-    <t>A directed graph is built from the document structure: one node per section, with edges from parent to child (e.g. 'Part A' → 'Section 2'). This supports graph expansion at query time (e.g. follow section links from a seed chunk).</t>
+    <t>Create one graph node per section from the structure tree. Add a directed edge from each parent section to its child. Output is a graph with section nodes and contains_section edges.</t>
   </si>
   <si>
     <t>NetworkX</t>
@@ -328,202 +329,202 @@
     <t>add_section_node(), add_edge(relation='contains_section')</t>
   </si>
   <si>
-    <t>Document structure (sections)</t>
-  </si>
-  <si>
-    <t>Graph with section nodes and hierarchical edges</t>
-  </si>
-  <si>
-    <t>Nodes: section:Part A, section:Section 2; edges: Part A → Section 2 (contains_section).</t>
+    <t>Structure dict</t>
+  </si>
+  <si>
+    <t>Graph with section nodes and contains_section edges</t>
+  </si>
+  <si>
+    <t>For each section in structure: add_section_node(), add_edge(parent, child, 'contains_section').</t>
   </si>
   <si>
     <t>Page classification</t>
   </si>
   <si>
-    <t>Each page is classified by the LLM into a short label (1–4 words) based on its content. Labels are stored in chunk metadata and used for display or filtering (e.g. 'Terms and conditions', 'Claim form').</t>
+    <t>For each page, call the LLM to assign a short label (1–4 words) from the page content. Output is a dict mapping page_number to classification label.</t>
   </si>
   <si>
     <t>Ollama LLM</t>
   </si>
   <si>
-    <t>Per-page content classification (1–4 word labels)</t>
+    <t>One label per page (1–4 words)</t>
   </si>
   <si>
     <t>classify_pages(), classify_page_with_llm()</t>
   </si>
   <si>
-    <t>Chunks grouped by page, page mapping</t>
-  </si>
-  <si>
-    <t>Dictionary: {page_number: classification_label}</t>
-  </si>
-  <si>
-    <t>Page 3 chunks → LLM → page_classification[3] = 'Terms and conditions'.</t>
-  </si>
-  <si>
-    <t>Process chunks (embed + graph)</t>
-  </si>
-  <si>
-    <t>For each chunk, the pipeline generates a one-line summary (LLM), computes an embedding (nomic-embed-text), adds the chunk to Chroma, and adds a chunk node and edges to the graph (section, page, prev/next, and later similarity).</t>
+    <t>Chunks by page, page mapping</t>
+  </si>
+  <si>
+    <t>{page_number: classification_label}</t>
+  </si>
+  <si>
+    <t>classify_pages() → { 1: 'Cover', 2: 'Terms', 3: 'Terms', ... }.</t>
+  </si>
+  <si>
+    <t>Process each chunk (steps 15–18)</t>
+  </si>
+  <si>
+    <t>For each chunk in order: run step 15 (summary), step 16 (embed and add to Chroma), step 17 (add chunk node and section/page/prev/next edges), step 18 (add similar_to edges). Output is updated vector store, graph, and JSON mapping entries.</t>
   </si>
   <si>
     <t>Ollama, Chroma, NetworkX</t>
   </si>
   <si>
-    <t>Per-chunk: summary, embed, add to store and graph</t>
-  </si>
-  <si>
-    <t>process_chunks_one_by_one() loop, add_chunk_node(), add_edge()</t>
-  </si>
-  <si>
-    <t>Chunk content</t>
-  </si>
-  <si>
-    <t>Embedded chunk in Chroma, chunk node and edges in graph, JSON mapping entry</t>
-  </si>
-  <si>
-    <t>Chunk 'The policy shall be governed...' → summary generated, embedded, added to Chroma and graph with edges to section and page.</t>
-  </si>
-  <si>
-    <t>Chunk summary generation</t>
-  </si>
-  <si>
-    <t>The LLM produces a single concise summary line per chunk, within a token limit (e.g. 500). Summaries are stored in chunk metadata and used in retrieval (e.g. in analysis or answer prompts) and in the vector mapping JSON.</t>
-  </si>
-  <si>
-    <t>One-line summary, token limit 500</t>
+    <t>Loop chunks; run 15 (summary), 16 (embed), 17 (edges), 18 (similar_to)</t>
+  </si>
+  <si>
+    <t>process_chunks_one_by_one()</t>
+  </si>
+  <si>
+    <t>Chunk list, LLM, vector_store, graph</t>
+  </si>
+  <si>
+    <t>Updated Chroma, graph, JSON mapping (via 15–18)</t>
+  </si>
+  <si>
+    <t>For each chunk: call step 15, then 16, then 17, then 18 → Chroma and graph updated.</t>
+  </si>
+  <si>
+    <t>Generate chunk summary</t>
+  </si>
+  <si>
+    <t>Call the LLM with the chunk text to produce one concise summary line (token-limited). Attach the summary to the chunk metadata. Output is the chunk with metadata.summary set.</t>
+  </si>
+  <si>
+    <t>One-line summary, token limit</t>
   </si>
   <si>
     <t>get_summary_from_llm(), token_tracker.check_llm_limit()</t>
   </si>
   <si>
-    <t>Chunk content (max 2000 chars)</t>
-  </si>
-  <si>
-    <t>One-line summary string</t>
-  </si>
-  <si>
-    <t>Chunk text → LLM → 'Clause stating governing law is India.'.</t>
-  </si>
-  <si>
-    <t>Chunk embedding</t>
-  </si>
-  <si>
-    <t>Chunk text is checked against token/character limits for the embedding model; if over, it is truncated. The embedding is computed and the chunk (with metadata) is added to the Chroma collection.</t>
-  </si>
-  <si>
-    <t>Ollama (nomic-embed-text:v1.5), Chroma</t>
-  </si>
-  <si>
-    <t>Token/char limit check, vector storage</t>
+    <t>Chunk text</t>
+  </si>
+  <si>
+    <t>Chunk with metadata.summary</t>
+  </si>
+  <si>
+    <t>get_summary_from_llm(chunk_text) → 'Clause stating governing law is India.'; store in chunk.metadata.</t>
+  </si>
+  <si>
+    <t>Embed chunk and add to Chroma</t>
+  </si>
+  <si>
+    <t>Truncate the chunk text if it exceeds embedding limits. Compute the embedding and add the chunk (with metadata) to the Chroma collection. Output is the chunk stored in Chroma.</t>
+  </si>
+  <si>
+    <t>Ollama (nomic-embed-text), Chroma</t>
+  </si>
+  <si>
+    <t>Truncate if over limit; embed; add_documents()</t>
   </si>
   <si>
     <t>token_tracker.check_embedding_limit(), vector_store.add_documents()</t>
   </si>
   <si>
-    <t>Chunk content (max 2000 chars, 1500 tokens)</t>
-  </si>
-  <si>
-    <t>Vector embedding stored in Chroma</t>
-  </si>
-  <si>
-    <t>Chunk (1800 chars) → truncated if needed → embedding vector → Chroma.add_documents([doc]).</t>
-  </si>
-  <si>
-    <t>Chunk graph edges</t>
-  </si>
-  <si>
-    <t>Each chunk is added as a node in the graph. Edges link chunk to its section (belongs_to), to its page (on_page), and to previous/next chunks (follows). These support graph expansion (e.g. 'give me adjacent chunks').</t>
-  </si>
-  <si>
-    <t>belongs_to section, on_page, follows prev/next</t>
-  </si>
-  <si>
-    <t>add_chunk_node(), add_edge(contains, belongs_to, on_page, follows)</t>
-  </si>
-  <si>
-    <t>Chunk metadata (section_path, page_number, prev/next chunk IDs)</t>
-  </si>
-  <si>
-    <t>Graph nodes and edges for chunks</t>
-  </si>
-  <si>
-    <t>Chunk 12 → edges: chunk:12 --belongs_to--&gt; section:10. Jurisdiction, chunk:12 --on_page--&gt; page:5, chunk:12 --follows--&gt; chunk:11.</t>
-  </si>
-  <si>
-    <t>Similarity edges</t>
-  </si>
-  <si>
-    <t>For each chunk, a vector search finds other chunks with L2 distance below a threshold (e.g. 0.50). Pairs are connected with a 'similar_to' edge. This adds semantic neighbourhoods to the graph for expansion.</t>
+    <t>Chunk (text + metadata)</t>
+  </si>
+  <si>
+    <t>Chunk stored in Chroma</t>
+  </si>
+  <si>
+    <t>vector_store.add_documents([doc]) → chunk embedded and stored in Chroma.</t>
+  </si>
+  <si>
+    <t>Add chunk node and section/page edges</t>
+  </si>
+  <si>
+    <t>Add one graph node for the chunk. Add edges: chunk→section (belongs_to), chunk→page (on_page), chunk→prev (follows), chunk→next (follows). Output is the updated graph.</t>
+  </si>
+  <si>
+    <t>One node per chunk; edges: belongs_to, on_page, follows</t>
+  </si>
+  <si>
+    <t>add_chunk_node(), add_edge(belongs_to, on_page, follows)</t>
+  </si>
+  <si>
+    <t>Chunk, graph, structure</t>
+  </si>
+  <si>
+    <t>Graph with chunk node and belongs_to/on_page/follows edges</t>
+  </si>
+  <si>
+    <t>add_chunk_node(chunk); add_edge(chunk, section, 'belongs_to'); add_edge(chunk, page, 'on_page'); add_edge(chunk, prev, 'follows').</t>
+  </si>
+  <si>
+    <t>Add similar_to edges</t>
+  </si>
+  <si>
+    <t>Run a vector search from this chunk’s embedding; find other chunks within the similarity threshold. Add a similar_to edge from this chunk to each. Output is the updated graph.</t>
   </si>
   <si>
     <t>Chroma, NetworkX</t>
   </si>
   <si>
-    <t>L2 distance → similarity, threshold 0.50, similar_to edges</t>
+    <t>Vector search from chunk; threshold; add similar_to edges</t>
   </si>
   <si>
     <t>similarity_search_with_score(), add_edge(relation='similar_to')</t>
   </si>
   <si>
-    <t>Chunk embeddings</t>
-  </si>
-  <si>
-    <t>Graph edges with similarity scores (similar_to relation)</t>
-  </si>
-  <si>
-    <t>Chunk 5 embedding → similarity_search_with_score(k=10) → chunks 3, 7, 9 within threshold → add similar_to edges.</t>
-  </si>
-  <si>
-    <t>Persist outputs</t>
-  </si>
-  <si>
-    <t>The document graph is saved as JSON (nodes and edges). The vector mapping (chunks with metadata and optional summaries) is saved as JSON. The Chroma collection is persisted to disk so the retrieval agent can load it.</t>
+    <t>Chunk embedding, Chroma, graph</t>
+  </si>
+  <si>
+    <t>Graph with similar_to edges from this chunk</t>
+  </si>
+  <si>
+    <t>similarity_search_with_score(chunk_embedding) → add similar_to edges to chunks within threshold.</t>
+  </si>
+  <si>
+    <t>Persist graph, mapping, Chroma</t>
+  </si>
+  <si>
+    <t>Write the graph to a JSON file. Write the vector mapping (chunk list with metadata) to a JSON file. Persist the Chroma collection to disk. Output is the three artifacts on disk.</t>
   </si>
   <si>
     <t>Chroma, JSON</t>
   </si>
   <si>
-    <t>Graph JSON, vector mapping JSON, Chroma persist</t>
-  </si>
-  <si>
-    <t>document_graph.save(), json.dump(), Chroma persist_directory</t>
-  </si>
-  <si>
-    <t>DocumentGraph, JSON mapping, vector store</t>
-  </si>
-  <si>
-    <t>Graph JSON file, vector mapping JSON file, persisted Chroma DB</t>
-  </si>
-  <si>
-    <t>document_graph.save('.../graph.json'), json.dump(mapping, '.../vector_mapping.json'), Chroma persists to disk.</t>
-  </si>
-  <si>
-    <t>Submit query</t>
-  </si>
-  <si>
-    <t>The user sends a query (and optional document_id, flags) via the API. The request is validated and the agent for that document is loaded (vector store, graph, chunks, LLM). The query is passed into the agent state.</t>
-  </si>
-  <si>
-    <t>Request validation, agent loading</t>
-  </si>
-  <si>
-    <t>query_document(), load_agent_for_document()</t>
+    <t>Write graph JSON, mapping JSON, Chroma to disk</t>
+  </si>
+  <si>
+    <t>document_graph.save(), json.dump(), persist_directory</t>
+  </si>
+  <si>
+    <t>DocumentGraph, JSON mapping, Chroma</t>
+  </si>
+  <si>
+    <t>Graph JSON file, vector_mapping JSON file, Chroma on disk</t>
+  </si>
+  <si>
+    <t>document_graph.save('graph.json'); json.dump(mapping, 'vector_mapping.json'); Chroma persists.</t>
+  </si>
+  <si>
+    <t>Submit query and invoke agent</t>
+  </si>
+  <si>
+    <t>Validate the request (query, document_id). Load the agent resources for that document. Put the query into the agent state and invoke the agent graph. Output is the initial state and graph invocation.</t>
+  </si>
+  <si>
+    <t>Validate request, load agent, invoke graph</t>
+  </si>
+  <si>
+    <t>query_document(), load_agent_for_document(), agent.invoke()</t>
   </si>
   <si>
     <t>Query string, document_id</t>
   </si>
   <si>
-    <t>Initialized AgentState with query</t>
-  </si>
-  <si>
-    <t>POST /query { document_id, query: 'What is the grace period?' } → load agent → state = { query: '...', ... }.</t>
+    <t>Agent state after graph invocation</t>
+  </si>
+  <si>
+    <t>POST /query { document_id, query } → load_agent_for_document(); agent.invoke(initial_state) → final_state.</t>
   </si>
   <si>
     <t>Load agent resources</t>
   </si>
   <si>
-    <t>For the given document, the vector store (Chroma), document graph (NetworkX), chunk list (from vector mapping JSON), and LLM are loaded. If configured, the page summarization agent is also loaded. These are stored for use by the retrieval nodes.</t>
+    <t>Load the Chroma vector store from the document’s vector_db path. Load the document graph from the graph JSON. Load the chunk list from the vector mapping JSON. Load the LLM and, if configured, the page summarization agent. Output is these objects in memory for the retrieval nodes.</t>
   </si>
   <si>
     <t>main.py, retrivalAgentE.py</t>
@@ -532,25 +533,22 @@
     <t>Chroma, NetworkX, Ollama</t>
   </si>
   <si>
-    <t>Vector store, graph, chunks, LLM, page agent</t>
+    <t>Load vector store, graph, chunks, LLM, page agent</t>
   </si>
   <si>
     <t>load_chunks_from_mapping(), load_vector_store(), DocumentGraph.load(), load_page_agent()</t>
   </si>
   <si>
-    <t>Vector DB path, mapping file, graph file</t>
-  </si>
-  <si>
-    <t>Loaded vector store, graph, chunks, LLM, page agent</t>
-  </si>
-  <si>
-    <t>document_id → find vector_db path, mapping JSON, graph JSON → load Chroma, DocumentGraph, chunks list, Ollama LLM.</t>
-  </si>
-  <si>
-    <t>Query classification</t>
-  </si>
-  <si>
-    <t>The user query is classified as either a page-summary request (e.g. 'summarize page 5') or a normal retrieval request. Pattern matching and optionally the LLM are used. The result routes to either page summarization or the retrieval pipeline.</t>
+    <t>Loaded vector_store, graph, chunks, LLM, page agent</t>
+  </si>
+  <si>
+    <t>load_chunks_from_mapping(), load_vector_store(), DocumentGraph.load() → vector_store, graph, chunks, LLM in memory.</t>
+  </si>
+  <si>
+    <t>Classify query type</t>
+  </si>
+  <si>
+    <t>Decide whether the query asks for a page summary (e.g. 'summarize page 5') or a normal retrieval. Use pattern matching and optionally the LLM. Output is is_page_summary and, if true, page_number. This routes to either step 30 or step 23.</t>
   </si>
   <si>
     <t>retrivalAgentE.py</t>
@@ -559,7 +557,7 @@
     <t>Ollama LLM, regex</t>
   </si>
   <si>
-    <t>Page-summary vs normal retrieval</t>
+    <t>Page-summary vs normal retrieval; route</t>
   </si>
   <si>
     <t>classify_query(), route_query_type()</t>
@@ -568,22 +566,22 @@
     <t>User query</t>
   </si>
   <si>
-    <t>is_page_summary (bool), page_number (optional)</t>
-  </si>
-  <si>
-    <t>Query 'Summarize page 5' → is_page_summary=True, page_number=5 → route to summarize_page. Query 'What is the grace period?' → normal_retrieval.</t>
+    <t>is_page_summary, page_number (if page summary); route</t>
+  </si>
+  <si>
+    <t>classify_query(state) → is_page_summary=True, page_number=5 → route to step 30; else → step 23.</t>
   </si>
   <si>
     <t>Vector similarity search</t>
   </si>
   <si>
-    <t>The query is embedded and compared to chunk embeddings in Chroma. The top-k (e.g. 20) chunks by L2 distance are taken as seeds. Distances are converted to similarity scores and stored for logging or display.</t>
+    <t>Embed the query and run a vector search in Chroma (top-k by L2 distance). Convert distances to similarity scores. Output is the list of seed chunk IDs and their similarity scores.</t>
   </si>
   <si>
     <t>Chroma, nomic-embed-text</t>
   </si>
   <si>
-    <t>L2 distance, k=20, distance_to_similarity()</t>
+    <t>Embed query; top-k by L2; distance→similarity</t>
   </si>
   <si>
     <t>similarity_search_with_score(query, k=20)</t>
@@ -595,16 +593,16 @@
     <t>Seed chunk IDs, similarity scores</t>
   </si>
   <si>
-    <t>Query 'grace period' → vector_search(k=20) → seed_chunk_ids=[7, 12, 3, ...], seed_chunk_scores={7:0.82, 12:0.78, ...}.</t>
+    <t>similarity_search_with_score(query, k=20) → seed_chunk_ids=[7,12,...], seed_chunk_scores={7:0.82,...}.</t>
   </si>
   <si>
     <t>Graph expansion</t>
   </si>
   <si>
-    <t>From the top seed chunks (e.g. top 5), the graph is traversed: parent sections, adjacent chunks (prev/next), and similar chunks (similar_to). Expansion is capped (e.g. 15 extra chunks) to keep context size manageable.</t>
-  </si>
-  <si>
-    <t>BFS from top-5 seeds: sections, adjacent, similar; max 15</t>
+    <t>Starting from the top seed chunks (e.g. top 5), traverse the graph: add parent sections, adjacent chunks (prev/next), and similar_to neighbours. Stop after a fixed number of extra chunks (e.g. 15). Output is the expanded set of chunk IDs.</t>
+  </si>
+  <si>
+    <t>From top seeds: sections, adjacent, similar_to; cap</t>
   </si>
   <si>
     <t>expand_from_chunks(), get_parent_section(), get_adjacent_chunks(), get_similar_chunks()</t>
@@ -613,124 +611,124 @@
     <t>Seed chunk IDs</t>
   </si>
   <si>
-    <t>Expanded chunk IDs (via graph edges)</t>
-  </si>
-  <si>
-    <t>Seeds [7, 12, 3, 40, 11] → expand_from_chunks() → add parent sections, prev/next chunks, similar_to neighbours → graph_expanded_ids (e.g. 15 more).</t>
-  </si>
-  <si>
-    <t>Cap initial chunks</t>
-  </si>
-  <si>
-    <t>The combined set of seed and expanded chunks is trimmed to a fixed limit (e.g. 25) for the first pass. Order is preserved (e.g. seeds first). These chunks are stored in state and passed to chunk analysis. No LLM scoring step is used.</t>
-  </si>
-  <si>
-    <t>Select top 25 chunks from combined vector + graph results</t>
+    <t>Expanded chunk IDs (seed + graph neighbours)</t>
+  </si>
+  <si>
+    <t>expand_from_chunks(top_5_seeds) → graph_expanded_ids (e.g. 16 more chunk IDs).</t>
+  </si>
+  <si>
+    <t>Cap and set retrieved chunks</t>
+  </si>
+  <si>
+    <t>Take the union of seed and expanded chunk IDs and keep only the first N (e.g. 25) chunks as Document objects. Store them in state. Output is state['retrieved_chunks'].</t>
+  </si>
+  <si>
+    <t>Take first N chunks (e.g. 25); store in state</t>
   </si>
   <si>
     <t>retrieved_chunks[:25], state['retrieved_chunks']</t>
   </si>
   <si>
-    <t>Combined seed + expanded chunk list</t>
-  </si>
-  <si>
-    <t>Top 25 chunks in state['retrieved_chunks']</t>
-  </si>
-  <si>
-    <t>28 chunks (20 seeds + 15 expanded, some overlap) → take first 25 → state['retrieved_chunks'] = list of 25 Document objects.</t>
-  </si>
-  <si>
-    <t>Chunk analysis</t>
-  </si>
-  <si>
-    <t>The LLM analyzes the current chunks with a short prompt: do they sufficiently answer the query? If not, it produces a single follow-up query. The result (needs_more_info, new_query) drives whether a second retrieval is run.</t>
-  </si>
-  <si>
-    <t>Shortened prompt; need more info?, single follow-up query</t>
+    <t>Seed + expanded chunk IDs, chunk list</t>
+  </si>
+  <si>
+    <t>state['retrieved_chunks'] (first N)</t>
+  </si>
+  <si>
+    <t>retrieved_chunks = [doc for id in (seed_ids + expanded_ids)][:25] → state['retrieved_chunks'].</t>
+  </si>
+  <si>
+    <t>Analyze chunks; decide if more info needed</t>
+  </si>
+  <si>
+    <t>Call the LLM with the query and a subset of the retrieved chunks. Ask whether the chunks suffice to answer the query and, if not, for one follow-up query. Output is needs_more_info and, if true, new_query.</t>
+  </si>
+  <si>
+    <t>LLM: suffice? one follow-up query if not</t>
   </si>
   <si>
     <t>analyze_chunks(), should_continue_search()</t>
   </si>
   <si>
-    <t>Query, retrieved chunks (top 12)</t>
-  </si>
-  <si>
-    <t>Analysis text, needs_more_info (bool), new_query (optional)</t>
-  </si>
-  <si>
-    <t>Query 'governing law'; 25 chunks → LLM: 'Partially; missing which country.' → needs_more_info=True, new_query='Which country laws govern this policy?'.</t>
-  </si>
-  <si>
-    <t>Second retrieval</t>
-  </si>
-  <si>
-    <t>When the analysis requests more information, a second retrieval is run with the new query: vector search (e.g. k=15) and graph expansion from those seeds, excluding chunks already in the first pass. Results are capped (e.g. 15) and appended to state.</t>
-  </si>
-  <si>
-    <t>New query vector search, graph expand; cap 15 chunks</t>
+    <t>Query, retrieved chunks</t>
+  </si>
+  <si>
+    <t>needs_more_info, new_query (optional)</t>
+  </si>
+  <si>
+    <t>analyze_chunks(state) → needs_more_info=True, new_query='Which country laws govern this policy?'.</t>
+  </si>
+  <si>
+    <t>Second retrieval (if needed)</t>
+  </si>
+  <si>
+    <t>If needs_more_info and new_query exist: embed new_query, run vector search (top-k), expand via graph, exclude already-retrieved chunks, cap the new set (e.g. 15). Append to state. Output is state['second_retrieval_chunks'].</t>
+  </si>
+  <si>
+    <t>Vector search + expand with new_query; cap; append</t>
   </si>
   <si>
     <t>second_retrieval(), similarity_search_with_score(new_query, k=15)</t>
   </si>
   <si>
-    <t>New query, existing chunk IDs (to avoid duplicates)</t>
-  </si>
-  <si>
-    <t>Additional chunks (up to 15) in state['second_retrieval_chunks']</t>
-  </si>
-  <si>
-    <t>new_query='Which country laws govern...' → vector_search(k=15), graph expand → 4 new chunks (excluding already retrieved) → second_retrieval_chunks.</t>
-  </si>
-  <si>
-    <t>Generate answer</t>
-  </si>
-  <si>
-    <t>The final answer is generated by the LLM from the selected chunks (primary plus any second retrieval). The user question is placed at the top of the prompt and repeated before the answer instruction. Only information from the chunks is used; chunk numbers are not cited in the answer.</t>
-  </si>
-  <si>
-    <t>Question in prompt (first line + repeated); primary + second chunks</t>
-  </si>
-  <si>
-    <t>generate_final_answer(), answer_prompt with QUESTION block</t>
-  </si>
-  <si>
-    <t>Query, primary chunks, second chunks (if any)</t>
-  </si>
-  <si>
-    <t>Final answer text</t>
-  </si>
-  <si>
-    <t>Query 'policy governed by which country?' + 29 chunks → prompt starts with 'QUESTION: policy governed by which country?' and repeats it → LLM returns answer citing document only.</t>
-  </si>
-  <si>
-    <t>Format response</t>
-  </si>
-  <si>
-    <t>The agent output (final answer, chunk list, retrieval stats, debug info) is mapped into a structured API response: answer text, optional chunk details (with metadata), retrieval statistics, and optional second query used.</t>
+    <t>new_query, existing chunk IDs</t>
+  </si>
+  <si>
+    <t>state['second_retrieval_chunks'] (capped)</t>
+  </si>
+  <si>
+    <t>second_retrieval(state) → vector search + expand with new_query → state['second_retrieval_chunks'] = [8 chunks].</t>
+  </si>
+  <si>
+    <t>Generate final answer</t>
+  </si>
+  <si>
+    <t>Build a prompt that states the user question at the top and again before the answer instruction. Fill the middle with the selected chunks (primary and, if any, second). Call the LLM. Return only the answer text; do not cite chunk numbers. Output is state['final_answer'].</t>
+  </si>
+  <si>
+    <t>Prompt: question + chunks; LLM answer from chunks only</t>
+  </si>
+  <si>
+    <t>generate_final_answer(), answer_prompt with QUESTION</t>
+  </si>
+  <si>
+    <t>Query, primary chunks, second chunks</t>
+  </si>
+  <si>
+    <t>state['final_answer']</t>
+  </si>
+  <si>
+    <t>generate_final_answer(state) → prompt with QUESTION + chunks → LLM → state['final_answer'] = answer text.</t>
+  </si>
+  <si>
+    <t>Format API response</t>
+  </si>
+  <si>
+    <t>Map the agent state (final_answer, chunks, retrieval stats) into the API response schema: answer, optional chunk details, retrieval_stats, second_query if used. Return the JSON response.</t>
   </si>
   <si>
     <t>FastAPI, Pydantic</t>
   </si>
   <si>
-    <t>ChunkDetail, retrieval_stats, debug_info</t>
+    <t>Map state to QueryResponse schema</t>
   </si>
   <si>
     <t>QueryResponse(), ChunkDetail(), retrieval_stats</t>
   </si>
   <si>
-    <t>Final answer, chunks, stats</t>
+    <t>Agent state (final_answer, chunks, stats)</t>
   </si>
   <si>
     <t>QueryResponse JSON</t>
   </si>
   <si>
-    <t>final_answer, retrieved_chunks, second_retrieval_chunks, debug_info → QueryResponse(answer=..., retrieval_stats={...}, chunks_detail=[...]).</t>
+    <t>QueryResponse(answer=final_state['final_answer'], chunks_detail=..., retrieval_stats=...) → JSON response.</t>
   </si>
   <si>
     <t>Page summarization</t>
   </si>
   <si>
-    <t>For page-summary queries, the page summarization agent loads chunks for the requested page (and optionally adjacent pages). The LLM produces a short summary, key points, and section labels. The result is returned as the final answer.</t>
+    <t>Load chunks for the requested page (and optionally adjacent pages) from the graph/mapping. Call the LLM to produce a short summary, key points, and section labels. Return this as the final answer.</t>
   </si>
   <si>
     <t>main.py, page_summarization.py</t>
@@ -739,7 +737,7 @@
     <t>Ollama LLM, DocumentGraph</t>
   </si>
   <si>
-    <t>Page chunks or adjacent, LLM summary + key points</t>
+    <t>Load page chunks; LLM summary and key points</t>
   </si>
   <si>
     <t>load_page_agent(), summarize_page(), _generate_summary_with_llm()</t>
@@ -748,17 +746,275 @@
     <t>Page number</t>
   </si>
   <si>
-    <t>Page summary with key points, sections, classification</t>
-  </si>
-  <si>
-    <t>Query 'Summarize page 5' → load chunks for page 5 (and maybe 4, 6) → LLM → 'Page 5 covers Premium payment. Key points: ...'.</t>
+    <t>Page summary text, key points, sections</t>
+  </si>
+  <si>
+    <t>summarize_page(state) → load page 5 chunks → LLM → 'Page 5: Premium payment. Key points: ...'.</t>
+  </si>
+  <si>
+    <t>Upload &amp; schedule PDF processing</t>
+  </si>
+  <si>
+    <t>Receive PDF from client; save to document folder (UUID); return document_id and status. Enqueue a background task that, when run, executes: convert PDF to markdown (Docling, page-break placeholders), correct heading hierarchy (ResultPostprocessor from TOC/bookmarks), fix markdown tables (process_markdown), extract page mapping from markers. Task writes .md file and _page_mapping.json to the document folder.</t>
+  </si>
+  <si>
+    <t>FastAPI, Docling, docling-hierarchical</t>
+  </si>
+  <si>
+    <t>File save, UUID, background enqueue; PDF→markdown, heading correction, table fix, line→page extraction</t>
+  </si>
+  <si>
+    <t>upload_pdf(), process_pdf_background(), process_single_pdf(), DocumentConverter.convert(), ResultPostprocessor.process(), process_markdown(), extract_page_mapping_from_markdown()</t>
+  </si>
+  <si>
+    <t>Saved PDF path, document_id, ProcessPDFResponse; then (when task runs) markdown file, page mapping JSON</t>
+  </si>
+  <si>
+    <t>POST /upload → file saved, task enqueued; task runs: Docling→md, headings fixed, tables fixed, page_mapping.json written.</t>
+  </si>
+  <si>
+    <t>PDF to markdown pipeline (convert, headings, tables, page mapping)</t>
+  </si>
+  <si>
+    <t>Convert PDF to structured markdown with page-break placeholders (Docling). Correct heading levels using PDF TOC/bookmarks (ResultPostprocessor). Fix tables: separators, headers, trailing columns (process_markdown). Scan markers and build line-to-page map (extract_page_mapping_from_markdown or create_approximate_page_mapping). Save fixed markdown and page mapping JSON. All details as in steps 3–6.</t>
+  </si>
+  <si>
+    <t>Docling, docling-hierarchical</t>
+  </si>
+  <si>
+    <t>PDF parse, export_to_markdown(page_break_placeholder), TOC heading inference, table detect/fix, page-break scan</t>
+  </si>
+  <si>
+    <t>DocumentConverter.convert(), export_to_markdown(), ResultPostprocessor.process(), process_markdown(), fix_table(), extract_page_mapping_from_markdown(), create_approximate_page_mapping()</t>
+  </si>
+  <si>
+    <t>Raw markdown with page breaks; document with corrected headings; fixed markdown; page mapping JSON {line_to_page, page_boundaries, total_pages}. Files written to document folder.</t>
+  </si>
+  <si>
+    <t>policy.pdf → Docling → md with breaks; headings fixed; tables fixed; extract_page_mapping_from_markdown() → JSON; both files saved.</t>
+  </si>
+  <si>
+    <t>Schedule vectorization &amp; load document (parse, structure)</t>
+  </si>
+  <si>
+    <t>Enqueue background vectorization workflow; create state (markdown path, document folder). When workflow runs: load markdown file and page-mapping JSON; parse markdown into lines/blocks and attach page numbers. Scan markdown for headers (#, ##, …) and build section tree with full paths (e.g. 'Part A &gt; Section 2 &gt; 2.1'). Combines steps 7–9.</t>
+  </si>
+  <si>
+    <t>main.py, vectorizerE.py</t>
+  </si>
+  <si>
+    <t>Background enqueue; read file, parse, attach page numbers; regex headers, section tree with full paths</t>
+  </si>
+  <si>
+    <t>vectorize_document(), vectorize_background(), load_markdown(), parse_markdown_enhanced(), extract_document_structure()</t>
+  </si>
+  <si>
+    <t>document_id; then markdown path, page mapping path</t>
+  </si>
+  <si>
+    <t>Enqueued workflow; then parsed content (lines/blocks + page numbers), structure dict (sections with full paths)</t>
+  </si>
+  <si>
+    <t>POST /vectorize → workflow enqueued; workflow: load_markdown(), parse → blocks+page; extract_document_structure() → section tree.</t>
+  </si>
+  <si>
+    <t>Create chunks &amp; initialize models</t>
+  </si>
+  <si>
+    <t>Split markdown into fixed-size chunks (e.g. 2000 chars, 150 overlap). Assign each chunk: section_path from structure, page_number from page mapping, heading, prev/next chunk IDs; drop empty/duplicate. Initialize Ollama LLM and embedding model; create Chroma vector store with persist directory. Combines steps 10–11.</t>
+  </si>
+  <si>
+    <t>Ollama (llama3.1, nomic-embed-text), Chroma</t>
+  </si>
+  <si>
+    <t>Size/overlap split, section/page/prev/next metadata; LLM and embedding client, Chroma persist_directory</t>
+  </si>
+  <si>
+    <t>create_enhanced_chunk(), is_chunk_empty(); Ollama(), OllamaEmbeddings(), Chroma(persist_directory)</t>
+  </si>
+  <si>
+    <t>Markdown, structure, page mapping; model names, base URL</t>
+  </si>
+  <si>
+    <t>List of Document chunks with metadata; initialized LLM, embeddings, vector_store, empty DocumentGraph</t>
+  </si>
+  <si>
+    <t>Chunks created with section_path, page_number; Ollama(), Chroma() created.</t>
+  </si>
+  <si>
+    <t>Build section graph &amp; classify pages</t>
+  </si>
+  <si>
+    <t>Add one graph node per section from structure; add directed edge from each parent to child (contains_section). For each page, call LLM to assign a short label (1–4 words) from page content. Output: graph with section nodes and edges; dict page_number → classification_label. Combines steps 12–13.</t>
+  </si>
+  <si>
+    <t>NetworkX, Ollama LLM</t>
+  </si>
+  <si>
+    <t>Section nodes, parent→child edges; per-page LLM classification</t>
+  </si>
+  <si>
+    <t>add_section_node(), add_edge(contains_section); classify_pages(), classify_page_with_llm()</t>
+  </si>
+  <si>
+    <t>Structure dict; chunks grouped by page, page mapping</t>
+  </si>
+  <si>
+    <t>Graph with section nodes and contains_section edges; {page_number: classification_label}</t>
+  </si>
+  <si>
+    <t>add_section_node() for each section; classify_pages() → {1:'Cover', 2:'Terms', ...}.</t>
+  </si>
+  <si>
+    <t>Process chunks: summary, embed, graph (per chunk)</t>
+  </si>
+  <si>
+    <t>For each chunk in order: (1) Generate one-line summary via LLM (token-limited); attach to chunk metadata. (2) Truncate if over embedding limit; compute embedding; add chunk to Chroma. (3) Add chunk node to graph; edges: belongs_to section, on_page, follows prev/next. (4) Vector search from chunk embedding; add similar_to edges to chunks within threshold. Combines steps 14–18.</t>
+  </si>
+  <si>
+    <t>Ollama LLM, nomic-embed-text, Chroma, NetworkX</t>
+  </si>
+  <si>
+    <t>Per chunk: get_summary_from_llm; add_documents; add_chunk_node, belongs_to/on_page/follows; similarity_search_with_score, similar_to edges</t>
+  </si>
+  <si>
+    <t>process_chunks_one_by_one(), get_summary_from_llm(), vector_store.add_documents(), add_chunk_node(), add_edge(), similarity_search_with_score()</t>
+  </si>
+  <si>
+    <t>Chunk list, LLM, vector_store, graph, structure</t>
+  </si>
+  <si>
+    <t>Chroma filled with chunks; graph with chunk nodes, section/page/follows/similar_to edges; JSON mapping entries</t>
+  </si>
+  <si>
+    <t>For each chunk: summary → embed → Chroma; chunk node + edges; similar_to edges from vector search.</t>
+  </si>
+  <si>
+    <t>Persist vectorization outputs</t>
+  </si>
+  <si>
+    <t>Write document graph to JSON file. Write vector mapping (chunk list with metadata) to JSON file. Persist Chroma collection to disk. Retrieval agent will load these. Step 19.</t>
+  </si>
+  <si>
+    <t>Save graph JSON, dump mapping JSON, Chroma persist_directory</t>
+  </si>
+  <si>
+    <t>document_graph.save(), json.dump(), Chroma persist</t>
+  </si>
+  <si>
+    <t>Submit query &amp; load agent</t>
+  </si>
+  <si>
+    <t>Validate request (query, document_id). Load agent resources: Chroma vector store, document graph (NetworkX), chunk list from vector mapping JSON, LLM; optionally page summarization agent. Put query into agent state and invoke the agent graph. Combines steps 20–21.</t>
+  </si>
+  <si>
+    <t>FastAPI, Chroma, NetworkX, Ollama</t>
+  </si>
+  <si>
+    <t>Request validation; load vector store, graph, chunks, LLM, page agent; agent.invoke(initial_state)</t>
+  </si>
+  <si>
+    <t>query_document(), load_agent_for_document(), load_chunks_from_mapping(), load_vector_store(), DocumentGraph.load(), load_page_agent(), agent.invoke()</t>
+  </si>
+  <si>
+    <t>Agent state after graph invocation (includes loaded vector_store, graph, chunks, LLM)</t>
+  </si>
+  <si>
+    <t>POST /query → load_agent_for_document(); agent.invoke({query, ...}) → final_state.</t>
+  </si>
+  <si>
+    <t>Classify query &amp; retrieve (vector search + graph expansion)</t>
+  </si>
+  <si>
+    <t>Classify query as page-summary (e.g. 'summarize page 5') or normal retrieval; route accordingly. For normal: embed query; vector search in Chroma (top-k by L2 distance); convert to similarity scores. From top seed chunks, traverse graph (parent sections, adjacent prev/next, similar_to); cap expansion. Take first N chunks (e.g. 25) as retrieved_chunks. Combines steps 22–25.</t>
+  </si>
+  <si>
+    <t>Ollama LLM, regex, Chroma, nomic-embed-text, NetworkX</t>
+  </si>
+  <si>
+    <t>classify_query, route; similarity_search_with_score(query, k=20); expand_from_chunks (sections, adjacent, similar_to); cap N chunks</t>
+  </si>
+  <si>
+    <t>classify_query(), route_query_type(), similarity_search_with_score(), distance_to_similarity(), expand_from_chunks(), get_parent_section(), get_adjacent_chunks(), get_similar_chunks()</t>
+  </si>
+  <si>
+    <t>User query; then query string; then seed chunk IDs</t>
+  </si>
+  <si>
+    <t>is_page_summary, page_number (if page); or seed_chunk_ids, similarity scores; expanded IDs; state['retrieved_chunks']</t>
+  </si>
+  <si>
+    <t>classify → normal_retrieval; vector search → seeds; expand_from_chunks() → state['retrieved_chunks'][:25].</t>
+  </si>
+  <si>
+    <t>Analyze chunks &amp; optional second retrieval</t>
+  </si>
+  <si>
+    <t>LLM analyzes retrieved chunks: do they suffice to answer the query? If not, produce one follow-up query. If needs_more_info and new_query: embed new_query; vector search (top-k); graph expand; exclude already-retrieved; cap new set (e.g. 15); append to state as second_retrieval_chunks. Combines steps 26–27.</t>
+  </si>
+  <si>
+    <t>Ollama LLM, Chroma, NetworkX</t>
+  </si>
+  <si>
+    <t>analyze_chunks (suffice? one follow-up query); second_retrieval: vector search + expand, cap, append</t>
+  </si>
+  <si>
+    <t>analyze_chunks(), should_continue_search(), second_retrieval(), similarity_search_with_score(new_query, k=15)</t>
+  </si>
+  <si>
+    <t>Query, retrieved chunks; then new_query, existing chunk IDs</t>
+  </si>
+  <si>
+    <t>needs_more_info, new_query; state['second_retrieval_chunks'] (if second retrieval run)</t>
+  </si>
+  <si>
+    <t>analyze_chunks() → needs_more_info=True, new_query='...'; second_retrieval() → 8 new chunks appended.</t>
+  </si>
+  <si>
+    <t>Generate final answer &amp; format API response</t>
+  </si>
+  <si>
+    <t>Build prompt with user question at top and repeated before answer instruction; fill context with primary and (if any) second retrieval chunks. Call LLM; answer from chunks only; no chunk numbers in answer. Map agent state to API schema: answer, optional chunk details, retrieval_stats, second_query if used. Combines steps 28–29.</t>
+  </si>
+  <si>
+    <t>retrivalAgentE.py, main.py</t>
+  </si>
+  <si>
+    <t>Ollama LLM, FastAPI, Pydantic</t>
+  </si>
+  <si>
+    <t>generate_final_answer (QUESTION + chunks prompt); QueryResponse schema mapping</t>
+  </si>
+  <si>
+    <t>generate_final_answer(), answer_prompt with QUESTION block; QueryResponse(), ChunkDetail(), retrieval_stats</t>
+  </si>
+  <si>
+    <t>Query, primary chunks, second chunks; then final_answer, chunks, stats</t>
+  </si>
+  <si>
+    <t>state['final_answer']; QueryResponse JSON (answer, chunks_detail, retrieval_stats)</t>
+  </si>
+  <si>
+    <t>generate_final_answer() → prompt + LLM → final_answer; QueryResponse(...) → JSON response.</t>
+  </si>
+  <si>
+    <t>When query is classified as page-summary: load chunks for the requested page (and optionally adjacent pages) from graph/mapping. Call LLM to produce a short summary, key points, and section labels. Return as final answer. Step 30.</t>
+  </si>
+  <si>
+    <t>Load page chunks (and adjacent if needed); LLM summary and key points</t>
+  </si>
+  <si>
+    <t>Page summary text, key points, sections, classification</t>
+  </si>
+  <si>
+    <t>Query 'Summarize page 5' → load page 5 chunks → LLM → 'Page 5: Premium payment. Key points: ...'.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +1037,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,6 +1062,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -826,10 +1095,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,8 +1110,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1141,12 +1421,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,13 +2138,13 @@
         <v>171</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1872,31 +2152,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,31 +2184,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1936,31 +2216,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,31 +2248,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2000,31 +2280,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2032,31 +2312,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,31 +2344,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,63 +2376,506 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J31" s="3" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>243</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Document_Processing_Pipeline_Steps.xlsx
+++ b/Document_Processing_Pipeline_Steps.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DocProcessing\zealits\onpremdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7EF12-B346-4FF0-8841-E2E609F3400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46DEBBD-2EAD-411B-BE37-EAD0EFA0F742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pipeline Steps" sheetId="1" r:id="rId1"/>
-    <sheet name="Combined Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="Short" sheetId="2" r:id="rId1"/>
+    <sheet name="Detail" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1421,6 +1421,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -2438,447 +2881,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>